--- a/Xero Reconciliation Robot Chrome Version/Data/Config.xlsx
+++ b/Xero Reconciliation Robot Chrome Version/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\UiPath\Xero Reconciliation Robot Chrome Version\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\UiPath\UiPath_Project\Xero Reconciliation Robot Chrome Version\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F8574C-1016-4167-968E-1CA85A71ADBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF01DBB-7DE1-4C27-990F-42799F49266E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="65">
   <si>
     <t>Name</t>
   </si>
@@ -186,12 +186,6 @@
   </si>
   <si>
     <t>Xero Login Credentials for a client</t>
-  </si>
-  <si>
-    <t>Folder where the reports will be dropped on the local machine</t>
-  </si>
-  <si>
-    <t>URL Link to xero</t>
   </si>
   <si>
     <t>Client_Name</t>
@@ -600,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z998"/>
+  <dimension ref="A1:Z994"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -683,88 +677,71 @@
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
+        <v>55</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" t="s">
         <v>60</v>
-      </c>
-      <c r="B13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A17" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A19" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19">
-        <v>8111042058</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="17" ht="14.25" customHeight="1"/>
+    <row r="18" ht="14.25" customHeight="1"/>
+    <row r="19" ht="14.25" customHeight="1"/>
+    <row r="20" ht="14.25" customHeight="1"/>
+    <row r="21" ht="14.25" customHeight="1"/>
+    <row r="22" ht="14.25" customHeight="1"/>
+    <row r="23" ht="14.25" customHeight="1"/>
+    <row r="24" ht="14.25" customHeight="1"/>
+    <row r="25" ht="14.25" customHeight="1"/>
+    <row r="26" ht="14.25" customHeight="1"/>
+    <row r="27" ht="14.25" customHeight="1"/>
+    <row r="28" ht="14.25" customHeight="1"/>
+    <row r="29" ht="14.25" customHeight="1"/>
+    <row r="30" ht="14.25" customHeight="1"/>
+    <row r="31" ht="14.25" customHeight="1"/>
+    <row r="32" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -1727,10 +1704,6 @@
     <row r="992" ht="14.25" customHeight="1"/>
     <row r="993" ht="14.25" customHeight="1"/>
     <row r="994" ht="14.25" customHeight="1"/>
-    <row r="995" ht="14.25" customHeight="1"/>
-    <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2905,7 +2878,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -2995,30 +2968,44 @@
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+    </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Xero Reconciliation Robot Chrome Version/Data/Config.xlsx
+++ b/Xero Reconciliation Robot Chrome Version/Data/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\UiPath\UiPath_Project\Xero Reconciliation Robot Chrome Version\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF01DBB-7DE1-4C27-990F-42799F49266E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4022009B-12C1-428A-983D-57DC6FE4AE22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -597,7 +597,7 @@
   <dimension ref="A1:Z994"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -2879,7 +2879,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>

--- a/Xero Reconciliation Robot Chrome Version/Data/Config.xlsx
+++ b/Xero Reconciliation Robot Chrome Version/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\UiPath\UiPath_Project\Xero Reconciliation Robot Chrome Version\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4022009B-12C1-428A-983D-57DC6FE4AE22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{130B12DD-D994-4BC7-8826-08DD5EA339B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="66">
   <si>
     <t>Name</t>
   </si>
@@ -167,9 +167,6 @@
     <t>Error_mail_Cc</t>
   </si>
   <si>
-    <t>Xero_Company_Name</t>
-  </si>
-  <si>
     <t>Xero_Url</t>
   </si>
   <si>
@@ -219,6 +216,12 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>XeroCompanyName</t>
+  </si>
+  <si>
+    <t>Shared</t>
   </si>
 </sst>
 </file>
@@ -597,7 +600,7 @@
   <dimension ref="A1:Z994"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -644,10 +647,10 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -657,7 +660,9 @@
       <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="C3" s="4" t="s">
         <v>31</v>
       </c>
@@ -677,52 +682,52 @@
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
         <v>52</v>
-      </c>
-      <c r="B7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
         <v>55</v>
-      </c>
-      <c r="C9" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" t="s">
         <v>59</v>
-      </c>
-      <c r="B13" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" t="s">
         <v>63</v>
-      </c>
-      <c r="B15" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
@@ -2960,50 +2965,50 @@
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
